--- a/sync_commcare_assets/patient-source-target-mappings.xlsx
+++ b/sync_commcare_assets/patient-source-target-mappings.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="patient" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,2713 +53,2713 @@
     <t>case_id</t>
   </si>
   <si>
+    <t>abnormal_chest_x-ray</t>
+  </si>
+  <si>
+    <t>properties.abnormal_chest_x-ray</t>
+  </si>
+  <si>
+    <t>abnormal_ekg</t>
+  </si>
+  <si>
+    <t>properties.abnormal_ekg</t>
+  </si>
+  <si>
+    <t>activity_church</t>
+  </si>
+  <si>
+    <t>properties.activity_church</t>
+  </si>
+  <si>
+    <t>activity_church_date</t>
+  </si>
+  <si>
+    <t>properties.activity_church_date</t>
+  </si>
+  <si>
+    <t>activity_church_info</t>
+  </si>
+  <si>
+    <t>properties.activity_church_info</t>
+  </si>
+  <si>
+    <t>activity_event</t>
+  </si>
+  <si>
+    <t>properties.activity_event</t>
+  </si>
+  <si>
+    <t>activity_event_date</t>
+  </si>
+  <si>
+    <t>properties.activity_event_date</t>
+  </si>
+  <si>
+    <t>activity_event_info</t>
+  </si>
+  <si>
+    <t>properties.activity_event_info</t>
+  </si>
+  <si>
+    <t>activity_flight</t>
+  </si>
+  <si>
+    <t>properties.activity_flight</t>
+  </si>
+  <si>
+    <t>activity_flight_date_time_arrival</t>
+  </si>
+  <si>
+    <t>properties.activity_flight_date_time_arrival</t>
+  </si>
+  <si>
+    <t>activity_flight_date_time_departure</t>
+  </si>
+  <si>
+    <t>properties.activity_flight_date_time_departure</t>
+  </si>
+  <si>
+    <t>activity_flight_number</t>
+  </si>
+  <si>
+    <t>properties.activity_flight_number</t>
+  </si>
+  <si>
+    <t>activity_flight_seat</t>
+  </si>
+  <si>
+    <t>properties.activity_flight_seat</t>
+  </si>
+  <si>
+    <t>activity_friends_fam</t>
+  </si>
+  <si>
+    <t>properties.activity_friends_fam</t>
+  </si>
+  <si>
+    <t>activity_friends_fam_date</t>
+  </si>
+  <si>
+    <t>properties.activity_friends_fam_date</t>
+  </si>
+  <si>
+    <t>activity_friends_fam_info</t>
+  </si>
+  <si>
+    <t>properties.activity_friends_fam_info</t>
+  </si>
+  <si>
+    <t>activity_funeral</t>
+  </si>
+  <si>
+    <t>properties.activity_funeral</t>
+  </si>
+  <si>
+    <t>activity_funeral_date</t>
+  </si>
+  <si>
+    <t>properties.activity_funeral_date</t>
+  </si>
+  <si>
+    <t>activity_funeral_info</t>
+  </si>
+  <si>
+    <t>properties.activity_funeral_info</t>
+  </si>
+  <si>
+    <t>activity_gym</t>
+  </si>
+  <si>
+    <t>properties.activity_gym</t>
+  </si>
+  <si>
+    <t>activity_gym_date</t>
+  </si>
+  <si>
+    <t>properties.activity_gym_date</t>
+  </si>
+  <si>
+    <t>activity_gym_info</t>
+  </si>
+  <si>
+    <t>properties.activity_gym_info</t>
+  </si>
+  <si>
+    <t>activity_health_care_facility</t>
+  </si>
+  <si>
+    <t>properties.activity_health_care_facility</t>
+  </si>
+  <si>
+    <t>activity_health_care_facility_date</t>
+  </si>
+  <si>
+    <t>properties.activity_health_care_facility_date</t>
+  </si>
+  <si>
+    <t>activity_health_care_facility_info</t>
+  </si>
+  <si>
+    <t>properties.activity_health_care_facility_info</t>
+  </si>
+  <si>
+    <t>activity_health_care_facility_reference</t>
+  </si>
+  <si>
+    <t>properties.activity_health_care_facility_reference</t>
+  </si>
+  <si>
+    <t>activity_health_care_facility_specify_name_and_address</t>
+  </si>
+  <si>
+    <t>properties.activity_health_care_facility_specify_name_and_address</t>
+  </si>
+  <si>
+    <t>activity_ltc</t>
+  </si>
+  <si>
+    <t>properties.activity_ltc</t>
+  </si>
+  <si>
+    <t>activity_ltc_date</t>
+  </si>
+  <si>
+    <t>properties.activity_ltc_date</t>
+  </si>
+  <si>
+    <t>activity_ltc_info</t>
+  </si>
+  <si>
+    <t>properties.activity_ltc_info</t>
+  </si>
+  <si>
+    <t>activity_ltc_name_and_address</t>
+  </si>
+  <si>
+    <t>properties.activity_ltc_name_and_address</t>
+  </si>
+  <si>
+    <t>activity_ltc_reference</t>
+  </si>
+  <si>
+    <t>properties.activity_ltc_reference</t>
+  </si>
+  <si>
+    <t>activity_none</t>
+  </si>
+  <si>
+    <t>properties.activity_none</t>
+  </si>
+  <si>
+    <t>activity_other</t>
+  </si>
+  <si>
+    <t>properties.activity_other</t>
+  </si>
+  <si>
+    <t>activity_other_date</t>
+  </si>
+  <si>
+    <t>properties.activity_other_date</t>
+  </si>
+  <si>
+    <t>activity_other_info</t>
+  </si>
+  <si>
+    <t>properties.activity_other_info</t>
+  </si>
+  <si>
+    <t>activity_party</t>
+  </si>
+  <si>
+    <t>properties.activity_party</t>
+  </si>
+  <si>
+    <t>activity_party_date</t>
+  </si>
+  <si>
+    <t>properties.activity_party_date</t>
+  </si>
+  <si>
+    <t>activity_party_info</t>
+  </si>
+  <si>
+    <t>properties.activity_party_info</t>
+  </si>
+  <si>
+    <t>activity_restaurant</t>
+  </si>
+  <si>
+    <t>properties.activity_restaurant</t>
+  </si>
+  <si>
+    <t>activity_restaurant_date</t>
+  </si>
+  <si>
+    <t>properties.activity_restaurant_date</t>
+  </si>
+  <si>
+    <t>activity_restaurant_info</t>
+  </si>
+  <si>
+    <t>properties.activity_restaurant_info</t>
+  </si>
+  <si>
+    <t>activity_retail_store</t>
+  </si>
+  <si>
+    <t>properties.activity_retail_store</t>
+  </si>
+  <si>
+    <t>activity_retail_store_date</t>
+  </si>
+  <si>
+    <t>properties.activity_retail_store_date</t>
+  </si>
+  <si>
+    <t>activity_retail_store_info</t>
+  </si>
+  <si>
+    <t>properties.activity_retail_store_info</t>
+  </si>
+  <si>
+    <t>activity_school</t>
+  </si>
+  <si>
+    <t>properties.activity_school</t>
+  </si>
+  <si>
+    <t>activity_school_date</t>
+  </si>
+  <si>
+    <t>properties.activity_school_date</t>
+  </si>
+  <si>
+    <t>activity_school_info</t>
+  </si>
+  <si>
+    <t>properties.activity_school_info</t>
+  </si>
+  <si>
+    <t>activity_school_reference</t>
+  </si>
+  <si>
+    <t>properties.activity_school_reference</t>
+  </si>
+  <si>
+    <t>activity_school_specify_name_and_address</t>
+  </si>
+  <si>
+    <t>properties.activity_school_specify_name_and_address</t>
+  </si>
+  <si>
+    <t>activity_work</t>
+  </si>
+  <si>
+    <t>properties.activity_work</t>
+  </si>
+  <si>
+    <t>activity_work_date</t>
+  </si>
+  <si>
+    <t>properties.activity_work_date</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>properties.address</t>
+  </si>
+  <si>
+    <t>address_city</t>
+  </si>
+  <si>
+    <t>properties.address_city</t>
+  </si>
+  <si>
+    <t>address_complete</t>
+  </si>
+  <si>
+    <t>properties.address_complete</t>
+  </si>
+  <si>
+    <t>address_county</t>
+  </si>
+  <si>
+    <t>properties.address_county</t>
+  </si>
+  <si>
+    <t>address_state</t>
+  </si>
+  <si>
+    <t>properties.address_state</t>
+  </si>
+  <si>
+    <t>address_street</t>
+  </si>
+  <si>
+    <t>properties.address_street</t>
+  </si>
+  <si>
+    <t>address_zip</t>
+  </si>
+  <si>
+    <t>properties.address_zip</t>
+  </si>
+  <si>
+    <t>adult_congregate_living_facility</t>
+  </si>
+  <si>
+    <t>properties.adult_congregate_living_facility</t>
+  </si>
+  <si>
+    <t>adult_congregate_living_facility_date</t>
+  </si>
+  <si>
+    <t>properties.adult_congregate_living_facility_date</t>
+  </si>
+  <si>
+    <t>adult_congregate_living_facility_location</t>
+  </si>
+  <si>
+    <t>properties.adult_congregate_living_facility_location</t>
+  </si>
+  <si>
+    <t>adult_congregate_living_facility_name</t>
+  </si>
+  <si>
+    <t>properties.adult_congregate_living_facility_name</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>properties.age</t>
+  </si>
+  <si>
+    <t>age_range</t>
+  </si>
+  <si>
+    <t>properties.age_range</t>
+  </si>
+  <si>
+    <t>airline</t>
+  </si>
+  <si>
+    <t>properties.airline</t>
+  </si>
+  <si>
+    <t>alternative_testing_name</t>
+  </si>
+  <si>
+    <t>properties.alternative_testing_name</t>
+  </si>
+  <si>
+    <t>alternative_testing_site_referral</t>
+  </si>
+  <si>
+    <t>properties.alternative_testing_site_referral</t>
+  </si>
+  <si>
+    <t>analysis_date</t>
+  </si>
+  <si>
+    <t>properties.analysis_date</t>
+  </si>
+  <si>
+    <t>animal_contact_location</t>
+  </si>
+  <si>
+    <t>properties.animal_contact_location</t>
+  </si>
+  <si>
+    <t>animal_contact_setting</t>
+  </si>
+  <si>
+    <t>properties.animal_contact_setting</t>
+  </si>
+  <si>
+    <t>animal_covid_19</t>
+  </si>
+  <si>
+    <t>properties.animal_covid_19</t>
+  </si>
+  <si>
+    <t>animal_covid_19_type</t>
+  </si>
+  <si>
+    <t>properties.animal_covid_19_type</t>
+  </si>
+  <si>
+    <t>another_diagnosis</t>
+  </si>
+  <si>
+    <t>properties.another_diagnosis</t>
+  </si>
+  <si>
+    <t>appointment_date</t>
+  </si>
+  <si>
+    <t>properties.appointment_date</t>
+  </si>
+  <si>
+    <t>appointment_phn_date</t>
+  </si>
+  <si>
+    <t>properties.appointment_phn_date</t>
+  </si>
+  <si>
+    <t>appointment_phn_scheduled</t>
+  </si>
+  <si>
+    <t>properties.appointment_phn_scheduled</t>
+  </si>
+  <si>
+    <t>appointment_phn_status</t>
+  </si>
+  <si>
+    <t>properties.appointment_phn_status</t>
+  </si>
+  <si>
+    <t>appointment_phn_time</t>
+  </si>
+  <si>
+    <t>properties.appointment_phn_time</t>
+  </si>
+  <si>
+    <t>appointment_scheduled</t>
+  </si>
+  <si>
+    <t>properties.appointment_scheduled</t>
+  </si>
+  <si>
+    <t>appointment_status</t>
+  </si>
+  <si>
+    <t>properties.appointment_status</t>
+  </si>
+  <si>
+    <t>appointment_time</t>
+  </si>
+  <si>
+    <t>properties.appointment_time</t>
+  </si>
+  <si>
+    <t>appointment_transport_details</t>
+  </si>
+  <si>
+    <t>properties.appointment_transport_details</t>
+  </si>
+  <si>
+    <t>appointment_transport_scheduled</t>
+  </si>
+  <si>
+    <t>properties.appointment_transport_scheduled</t>
+  </si>
+  <si>
+    <t>appointment_transport_status</t>
+  </si>
+  <si>
+    <t>properties.appointment_transport_status</t>
+  </si>
+  <si>
+    <t>ards</t>
+  </si>
+  <si>
+    <t>properties.ards</t>
+  </si>
+  <si>
+    <t>assigned_to_primary_checkin_case_id</t>
+  </si>
+  <si>
+    <t>properties.assigned_to_primary_checkin_case_id</t>
+  </si>
+  <si>
+    <t>assigned_to_primary_name</t>
+  </si>
+  <si>
+    <t>properties.assigned_to_primary_name</t>
+  </si>
+  <si>
+    <t>assigned_to_primary_username</t>
+  </si>
+  <si>
+    <t>properties.assigned_to_primary_username</t>
+  </si>
+  <si>
+    <t>assigned_to_temp_checkin_case_id</t>
+  </si>
+  <si>
+    <t>properties.assigned_to_temp_checkin_case_id</t>
+  </si>
+  <si>
+    <t>assigned_to_temp_name</t>
+  </si>
+  <si>
+    <t>properties.assigned_to_temp_name</t>
+  </si>
+  <si>
+    <t>assigned_to_temp_username</t>
+  </si>
+  <si>
+    <t>properties.assigned_to_temp_username</t>
+  </si>
+  <si>
+    <t>at_home</t>
+  </si>
+  <si>
+    <t>properties.at_home</t>
+  </si>
+  <si>
+    <t>ats_transport</t>
+  </si>
+  <si>
+    <t>properties.ats_transport</t>
+  </si>
+  <si>
+    <t>auto_close_date</t>
+  </si>
+  <si>
+    <t>properties.auto_close_date</t>
+  </si>
+  <si>
+    <t>bus_date</t>
+  </si>
+  <si>
+    <t>properties.bus_date</t>
+  </si>
+  <si>
+    <t>bus_line</t>
+  </si>
+  <si>
+    <t>properties.bus_line</t>
+  </si>
+  <si>
+    <t>car_service_date</t>
+  </si>
+  <si>
+    <t>properties.car_service_date</t>
+  </si>
+  <si>
+    <t>car_service_name</t>
+  </si>
+  <si>
+    <t>properties.car_service_name</t>
+  </si>
+  <si>
+    <t>case_import_date</t>
+  </si>
+  <si>
+    <t>properties.case_import_date</t>
+  </si>
+  <si>
+    <t>case_link</t>
+  </si>
+  <si>
+    <t>properties.case_link</t>
+  </si>
+  <si>
+    <t>case_name</t>
+  </si>
+  <si>
+    <t>properties.case_name</t>
+  </si>
+  <si>
+    <t>case_notes</t>
+  </si>
+  <si>
+    <t>properties.case_notes</t>
+  </si>
+  <si>
+    <t>case_type</t>
+  </si>
+  <si>
+    <t>properties.case_type</t>
+  </si>
+  <si>
+    <t>cdms_create_date</t>
+  </si>
+  <si>
+    <t>properties.cdms_create_date</t>
+  </si>
+  <si>
+    <t>cdms_id</t>
+  </si>
+  <si>
+    <t>properties.cdms_id</t>
+  </si>
+  <si>
+    <t>ci_team_referral</t>
+  </si>
+  <si>
+    <t>properties.ci_team_referral</t>
+  </si>
+  <si>
+    <t>clinical_review_complete</t>
+  </si>
+  <si>
+    <t>properties.clinical_review_complete</t>
+  </si>
+  <si>
+    <t>clinical_review_complete_date</t>
+  </si>
+  <si>
+    <t>properties.clinical_review_complete_date</t>
+  </si>
+  <si>
+    <t>clinical_review_disposition</t>
+  </si>
+  <si>
+    <t>properties.clinical_review_disposition</t>
+  </si>
+  <si>
+    <t>clinical_review_notes</t>
+  </si>
+  <si>
+    <t>properties.clinical_review_notes</t>
+  </si>
+  <si>
+    <t>close_base_date</t>
+  </si>
+  <si>
+    <t>properties.close_base_date</t>
+  </si>
+  <si>
     <t>closed</t>
   </si>
   <si>
-    <t>abnormal_chest_x-ray</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.abnormal_chest_x-ray</t>
-  </si>
-  <si>
-    <t>abnormal_ekg</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.abnormal_ekg</t>
-  </si>
-  <si>
-    <t>activity_church</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_church</t>
-  </si>
-  <si>
-    <t>activity_church_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_church_date</t>
-  </si>
-  <si>
-    <t>activity_church_info</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_church_info</t>
-  </si>
-  <si>
-    <t>activity_event</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_event</t>
-  </si>
-  <si>
-    <t>activity_event_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_event_date</t>
-  </si>
-  <si>
-    <t>activity_event_info</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_event_info</t>
-  </si>
-  <si>
-    <t>activity_flight</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_flight</t>
-  </si>
-  <si>
-    <t>activity_flight_date_time_arrival</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_flight_date_time_arrival</t>
-  </si>
-  <si>
-    <t>activity_flight_date_time_departure</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_flight_date_time_departure</t>
-  </si>
-  <si>
-    <t>activity_flight_number</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_flight_number</t>
-  </si>
-  <si>
-    <t>activity_flight_seat</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_flight_seat</t>
-  </si>
-  <si>
-    <t>activity_friends_fam</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_friends_fam</t>
-  </si>
-  <si>
-    <t>activity_friends_fam_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_friends_fam_date</t>
-  </si>
-  <si>
-    <t>activity_friends_fam_info</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_friends_fam_info</t>
-  </si>
-  <si>
-    <t>activity_funeral</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_funeral</t>
-  </si>
-  <si>
-    <t>activity_funeral_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_funeral_date</t>
-  </si>
-  <si>
-    <t>activity_funeral_info</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_funeral_info</t>
-  </si>
-  <si>
-    <t>activity_gym</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_gym</t>
-  </si>
-  <si>
-    <t>activity_gym_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_gym_date</t>
-  </si>
-  <si>
-    <t>activity_gym_info</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_gym_info</t>
-  </si>
-  <si>
-    <t>activity_health_care_facility</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_health_care_facility</t>
-  </si>
-  <si>
-    <t>activity_health_care_facility_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_health_care_facility_date</t>
-  </si>
-  <si>
-    <t>activity_health_care_facility_info</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_health_care_facility_info</t>
-  </si>
-  <si>
-    <t>activity_health_care_facility_reference</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_health_care_facility_reference</t>
-  </si>
-  <si>
-    <t>activity_health_care_facility_specify_name_and_address</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_health_care_facility_specify_name_and_address</t>
-  </si>
-  <si>
-    <t>activity_ltc</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_ltc</t>
-  </si>
-  <si>
-    <t>activity_ltc_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_ltc_date</t>
-  </si>
-  <si>
-    <t>activity_ltc_info</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_ltc_info</t>
-  </si>
-  <si>
-    <t>activity_ltc_name_and_address</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_ltc_name_and_address</t>
-  </si>
-  <si>
-    <t>activity_ltc_reference</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_ltc_reference</t>
-  </si>
-  <si>
-    <t>activity_none</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_none</t>
-  </si>
-  <si>
-    <t>activity_other</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_other</t>
-  </si>
-  <si>
-    <t>activity_other_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_other_date</t>
-  </si>
-  <si>
-    <t>activity_other_info</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_other_info</t>
-  </si>
-  <si>
-    <t>activity_party</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_party</t>
-  </si>
-  <si>
-    <t>activity_party_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_party_date</t>
-  </si>
-  <si>
-    <t>activity_party_info</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_party_info</t>
-  </si>
-  <si>
-    <t>activity_restaurant</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_restaurant</t>
-  </si>
-  <si>
-    <t>activity_restaurant_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_restaurant_date</t>
-  </si>
-  <si>
-    <t>activity_restaurant_info</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_restaurant_info</t>
-  </si>
-  <si>
-    <t>activity_retail_store</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_retail_store</t>
-  </si>
-  <si>
-    <t>activity_retail_store_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_retail_store_date</t>
-  </si>
-  <si>
-    <t>activity_retail_store_info</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_retail_store_info</t>
-  </si>
-  <si>
-    <t>activity_school</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_school</t>
-  </si>
-  <si>
-    <t>activity_school_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_school_date</t>
-  </si>
-  <si>
-    <t>activity_school_info</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_school_info</t>
-  </si>
-  <si>
-    <t>activity_school_reference</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_school_reference</t>
-  </si>
-  <si>
-    <t>activity_school_specify_name_and_address</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_school_specify_name_and_address</t>
-  </si>
-  <si>
-    <t>activity_work</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_work</t>
-  </si>
-  <si>
-    <t>activity_work_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.activity_work_date</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.address</t>
-  </si>
-  <si>
-    <t>address_city</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.address_city</t>
-  </si>
-  <si>
-    <t>address_complete</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.address_complete</t>
-  </si>
-  <si>
-    <t>address_county</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.address_county</t>
-  </si>
-  <si>
-    <t>address_state</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.address_state</t>
-  </si>
-  <si>
-    <t>address_street</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.address_street</t>
-  </si>
-  <si>
-    <t>address_zip</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.address_zip</t>
-  </si>
-  <si>
-    <t>adult_congregate_living_facility</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.adult_congregate_living_facility</t>
-  </si>
-  <si>
-    <t>adult_congregate_living_facility_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.adult_congregate_living_facility_date</t>
-  </si>
-  <si>
-    <t>adult_congregate_living_facility_location</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.adult_congregate_living_facility_location</t>
-  </si>
-  <si>
-    <t>adult_congregate_living_facility_name</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.adult_congregate_living_facility_name</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.age</t>
-  </si>
-  <si>
-    <t>age_range</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.age_range</t>
-  </si>
-  <si>
-    <t>airline</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.airline</t>
-  </si>
-  <si>
-    <t>alternative_testing_name</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.alternative_testing_name</t>
-  </si>
-  <si>
-    <t>alternative_testing_site_referral</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.alternative_testing_site_referral</t>
-  </si>
-  <si>
-    <t>analysis_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.analysis_date</t>
-  </si>
-  <si>
-    <t>animal_contact_location</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.animal_contact_location</t>
-  </si>
-  <si>
-    <t>animal_contact_setting</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.animal_contact_setting</t>
-  </si>
-  <si>
-    <t>animal_covid_19</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.animal_covid_19</t>
-  </si>
-  <si>
-    <t>animal_covid_19_type</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.animal_covid_19_type</t>
-  </si>
-  <si>
-    <t>another_diagnosis</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.another_diagnosis</t>
-  </si>
-  <si>
-    <t>appointment_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.appointment_date</t>
-  </si>
-  <si>
-    <t>appointment_phn_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.appointment_phn_date</t>
-  </si>
-  <si>
-    <t>appointment_phn_scheduled</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.appointment_phn_scheduled</t>
-  </si>
-  <si>
-    <t>appointment_phn_status</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.appointment_phn_status</t>
-  </si>
-  <si>
-    <t>appointment_phn_time</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.appointment_phn_time</t>
-  </si>
-  <si>
-    <t>appointment_scheduled</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.appointment_scheduled</t>
-  </si>
-  <si>
-    <t>appointment_status</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.appointment_status</t>
-  </si>
-  <si>
-    <t>appointment_time</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.appointment_time</t>
-  </si>
-  <si>
-    <t>appointment_transport_details</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.appointment_transport_details</t>
-  </si>
-  <si>
-    <t>appointment_transport_scheduled</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.appointment_transport_scheduled</t>
-  </si>
-  <si>
-    <t>appointment_transport_status</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.appointment_transport_status</t>
-  </si>
-  <si>
-    <t>ards</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.ards</t>
-  </si>
-  <si>
-    <t>assigned_to_primary_checkin_case_id</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.assigned_to_primary_checkin_case_id</t>
-  </si>
-  <si>
-    <t>assigned_to_primary_name</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.assigned_to_primary_name</t>
-  </si>
-  <si>
-    <t>assigned_to_primary_username</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.assigned_to_primary_username</t>
-  </si>
-  <si>
-    <t>assigned_to_temp_checkin_case_id</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.assigned_to_temp_checkin_case_id</t>
-  </si>
-  <si>
-    <t>assigned_to_temp_name</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.assigned_to_temp_name</t>
-  </si>
-  <si>
-    <t>assigned_to_temp_username</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.assigned_to_temp_username</t>
-  </si>
-  <si>
-    <t>at_home</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.at_home</t>
-  </si>
-  <si>
-    <t>ats_transport</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.ats_transport</t>
-  </si>
-  <si>
-    <t>auto_close_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.auto_close_date</t>
-  </si>
-  <si>
-    <t>bus_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.bus_date</t>
-  </si>
-  <si>
-    <t>bus_line</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.bus_line</t>
-  </si>
-  <si>
-    <t>car_service_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.car_service_date</t>
-  </si>
-  <si>
-    <t>car_service_name</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.car_service_name</t>
-  </si>
-  <si>
-    <t>case_import_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.case_import_date</t>
-  </si>
-  <si>
-    <t>case_link</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.case_link</t>
-  </si>
-  <si>
-    <t>case_name</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.case_name</t>
-  </si>
-  <si>
-    <t>case_notes</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.case_notes</t>
-  </si>
-  <si>
-    <t>case_type</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.case_type</t>
-  </si>
-  <si>
-    <t>cdms_create_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.cdms_create_date</t>
-  </si>
-  <si>
-    <t>cdms_id</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.cdms_id</t>
-  </si>
-  <si>
-    <t>ci_team_referral</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.ci_team_referral</t>
-  </si>
-  <si>
-    <t>clinical_review_complete</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.clinical_review_complete</t>
-  </si>
-  <si>
-    <t>clinical_review_complete_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.clinical_review_complete_date</t>
-  </si>
-  <si>
-    <t>clinical_review_disposition</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.clinical_review_disposition</t>
-  </si>
-  <si>
-    <t>clinical_review_notes</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.clinical_review_notes</t>
-  </si>
-  <si>
-    <t>close_base_date</t>
-  </si>
-  <si>
-    <t>properties.properties.properties.close_base_date</t>
-  </si>
-  <si>
     <t>closed_by_username</t>
   </si>
   <si>
-    <t>properties.properties.properties.closed_by_username</t>
+    <t>properties.closed_by_username</t>
   </si>
   <si>
     <t>closed_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.closed_date</t>
+    <t>properties.closed_date</t>
   </si>
   <si>
     <t>commcare_email_address</t>
   </si>
   <si>
-    <t>properties.properties.properties.commcare_email_address</t>
+    <t>properties.commcare_email_address</t>
   </si>
   <si>
     <t>community_event_mass_gathering</t>
   </si>
   <si>
-    <t>properties.properties.properties.community_event_mass_gathering</t>
+    <t>properties.community_event_mass_gathering</t>
   </si>
   <si>
     <t>community_event_mass_gathering_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.community_event_mass_gathering_date</t>
+    <t>properties.community_event_mass_gathering_date</t>
   </si>
   <si>
     <t>community_event_mass_gathering_location</t>
   </si>
   <si>
-    <t>properties.properties.properties.community_event_mass_gathering_location</t>
+    <t>properties.community_event_mass_gathering_location</t>
   </si>
   <si>
     <t>community_event_mass_gathering_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.community_event_mass_gathering_name</t>
+    <t>properties.community_event_mass_gathering_name</t>
   </si>
   <si>
     <t>confirmed_case_status</t>
   </si>
   <si>
-    <t>properties.properties.properties.confirmed_case_status</t>
+    <t>properties.confirmed_case_status</t>
   </si>
   <si>
     <t>contact_email_address</t>
   </si>
   <si>
-    <t>properties.properties.properties.contact_email_address</t>
+    <t>properties.contact_email_address</t>
   </si>
   <si>
     <t>contact_notes</t>
   </si>
   <si>
-    <t>properties.properties.properties.contact_notes</t>
+    <t>properties.contact_notes</t>
   </si>
   <si>
     <t>contact_phone_number</t>
   </si>
   <si>
-    <t>properties.properties.properties.contact_phone_number</t>
+    <t>properties.contact_phone_number</t>
   </si>
   <si>
     <t>correctional_facility</t>
   </si>
   <si>
-    <t>properties.properties.properties.correctional_facility</t>
+    <t>properties.correctional_facility</t>
   </si>
   <si>
     <t>correctional_facility_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.correctional_facility_date</t>
+    <t>properties.correctional_facility_date</t>
   </si>
   <si>
     <t>correctional_facility_location</t>
   </si>
   <si>
-    <t>properties.properties.properties.correctional_facility_location</t>
+    <t>properties.correctional_facility_location</t>
   </si>
   <si>
     <t>correctional_facility_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.correctional_facility_name</t>
+    <t>properties.correctional_facility_name</t>
   </si>
   <si>
     <t>correctional_facility_reference</t>
   </si>
   <si>
-    <t>properties.properties.properties.correctional_facility_reference</t>
+    <t>properties.correctional_facility_reference</t>
   </si>
   <si>
     <t>count_contact_cases</t>
   </si>
   <si>
-    <t>properties.properties.properties.count_contact_cases</t>
+    <t>properties.count_contact_cases</t>
   </si>
   <si>
     <t>count_lab_result_cases</t>
   </si>
   <si>
-    <t>properties.properties.properties.count_lab_result_cases</t>
+    <t>properties.count_lab_result_cases</t>
   </si>
   <si>
     <t>county_commcare_domain</t>
   </si>
   <si>
-    <t>properties.properties.properties.county_commcare_domain</t>
+    <t>properties.county_commcare_domain</t>
   </si>
   <si>
     <t>county_display</t>
   </si>
   <si>
-    <t>properties.properties.properties.county_display</t>
+    <t>properties.county_display</t>
   </si>
   <si>
     <t>covid_id</t>
   </si>
   <si>
-    <t>properties.properties.properties.covid_id</t>
+    <t>properties.covid_id</t>
   </si>
   <si>
     <t>created_manually</t>
   </si>
   <si>
-    <t>properties.properties.properties.created_manually</t>
+    <t>properties.created_manually</t>
   </si>
   <si>
     <t>current_status</t>
   </si>
   <si>
-    <t>properties.properties.properties.current_status</t>
+    <t>properties.current_status</t>
   </si>
   <si>
     <t>date_of_death</t>
   </si>
   <si>
-    <t>properties.properties.properties.date_of_death</t>
+    <t>properties.date_of_death</t>
   </si>
   <si>
     <t>days_mechanical_ventilation</t>
   </si>
   <si>
-    <t>properties.properties.properties.days_mechanical_ventilation</t>
+    <t>properties.days_mechanical_ventilation</t>
   </si>
   <si>
     <t>deceased</t>
   </si>
   <si>
-    <t>properties.properties.properties.deceased</t>
+    <t>properties.deceased</t>
   </si>
   <si>
     <t>developed_pneumonia</t>
   </si>
   <si>
-    <t>properties.properties.properties.developed_pneumonia</t>
+    <t>properties.developed_pneumonia</t>
   </si>
   <si>
     <t>direct_contact_with_animal</t>
   </si>
   <si>
-    <t>properties.properties.properties.direct_contact_with_animal</t>
+    <t>properties.direct_contact_with_animal</t>
   </si>
   <si>
     <t>dob</t>
   </si>
   <si>
-    <t>properties.properties.properties.dob</t>
+    <t>properties.dob</t>
   </si>
   <si>
     <t>dob_known</t>
   </si>
   <si>
-    <t>properties.properties.properties.dob_known</t>
+    <t>properties.dob_known</t>
   </si>
   <si>
     <t>doh_mpi_id</t>
   </si>
   <si>
-    <t>properties.properties.properties.doh_mpi_id</t>
+    <t>properties.doh_mpi_id</t>
   </si>
   <si>
     <t>ec_address_city</t>
   </si>
   <si>
-    <t>properties.properties.properties.ec_address_city</t>
+    <t>properties.ec_address_city</t>
   </si>
   <si>
     <t>ec_address_state</t>
   </si>
   <si>
-    <t>properties.properties.properties.ec_address_state</t>
+    <t>properties.ec_address_state</t>
   </si>
   <si>
     <t>ec_address_street</t>
   </si>
   <si>
-    <t>properties.properties.properties.ec_address_street</t>
+    <t>properties.ec_address_street</t>
   </si>
   <si>
     <t>ec_address_zip</t>
   </si>
   <si>
-    <t>properties.properties.properties.ec_address_zip</t>
+    <t>properties.ec_address_zip</t>
   </si>
   <si>
     <t>ec_email_address</t>
   </si>
   <si>
-    <t>properties.properties.properties.ec_email_address</t>
+    <t>properties.ec_email_address</t>
   </si>
   <si>
     <t>ec_first_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.ec_first_name</t>
+    <t>properties.ec_first_name</t>
   </si>
   <si>
     <t>ec_last_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.ec_last_name</t>
+    <t>properties.ec_last_name</t>
   </si>
   <si>
     <t>ec_phone_home</t>
   </si>
   <si>
-    <t>properties.properties.properties.ec_phone_home</t>
+    <t>properties.ec_phone_home</t>
   </si>
   <si>
     <t>ec_phone_work</t>
   </si>
   <si>
-    <t>properties.properties.properties.ec_phone_work</t>
+    <t>properties.ec_phone_work</t>
   </si>
   <si>
     <t>ec_relation</t>
   </si>
   <si>
-    <t>properties.properties.properties.ec_relation</t>
+    <t>properties.ec_relation</t>
   </si>
   <si>
     <t>ecmo</t>
   </si>
   <si>
-    <t>properties.properties.properties.ecmo</t>
+    <t>properties.ecmo</t>
   </si>
   <si>
     <t>edd</t>
   </si>
   <si>
-    <t>properties.properties.properties.edd</t>
+    <t>properties.edd</t>
   </si>
   <si>
     <t>ems</t>
   </si>
   <si>
-    <t>properties.properties.properties.ems</t>
+    <t>properties.ems</t>
   </si>
   <si>
     <t>ethnicity</t>
   </si>
   <si>
-    <t>properties.properties.properties.ethnicity</t>
+    <t>properties.ethnicity</t>
   </si>
   <si>
     <t>exposed</t>
   </si>
   <si>
-    <t>properties.properties.properties.exposed</t>
+    <t>properties.exposed</t>
   </si>
   <si>
     <t>exposure_case_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.exposure_case_name</t>
+    <t>properties.exposure_case_name</t>
   </si>
   <si>
     <t>exposure_close_proximity</t>
   </si>
   <si>
-    <t>properties.properties.properties.exposure_close_proximity</t>
+    <t>properties.exposure_close_proximity</t>
   </si>
   <si>
     <t>exposure_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.exposure_date</t>
+    <t>properties.exposure_date</t>
   </si>
   <si>
     <t>exposure_type</t>
   </si>
   <si>
-    <t>properties.properties.properties.exposure_type</t>
+    <t>properties.exposure_type</t>
   </si>
   <si>
     <t>exposure_type_other</t>
   </si>
   <si>
-    <t>properties.properties.properties.exposure_type_other</t>
+    <t>properties.exposure_type_other</t>
   </si>
   <si>
     <t>exposure_type_social_event</t>
   </si>
   <si>
-    <t>properties.properties.properties.exposure_type_social_event</t>
+    <t>properties.exposure_type_social_event</t>
   </si>
   <si>
     <t>exposure_type_travel</t>
   </si>
   <si>
-    <t>properties.properties.properties.exposure_type_travel</t>
+    <t>properties.exposure_type_travel</t>
   </si>
   <si>
     <t>final_disposition</t>
   </si>
   <si>
-    <t>properties.properties.properties.final_disposition</t>
+    <t>properties.final_disposition</t>
   </si>
   <si>
     <t>fips</t>
   </si>
   <si>
-    <t>properties.properties.properties.fips</t>
+    <t>properties.fips</t>
   </si>
   <si>
     <t>first_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.first_name</t>
+    <t>properties.first_name</t>
   </si>
   <si>
     <t>flight</t>
   </si>
   <si>
-    <t>properties.properties.properties.flight</t>
+    <t>properties.flight</t>
   </si>
   <si>
     <t>flight_airline_and_number</t>
   </si>
   <si>
-    <t>properties.properties.properties.flight_airline_and_number</t>
+    <t>properties.flight_airline_and_number</t>
   </si>
   <si>
     <t>flight_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.flight_date</t>
+    <t>properties.flight_date</t>
   </si>
   <si>
     <t>full_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.full_name</t>
+    <t>properties.full_name</t>
   </si>
   <si>
     <t>gaz</t>
   </si>
   <si>
-    <t>properties.properties.properties.gaz</t>
+    <t>properties.gaz</t>
   </si>
   <si>
     <t>gender</t>
   </si>
   <si>
-    <t>properties.properties.properties.gender</t>
+    <t>properties.gender</t>
   </si>
   <si>
     <t>gps</t>
   </si>
   <si>
-    <t>properties.properties.properties.gps</t>
+    <t>properties.gps</t>
   </si>
   <si>
     <t>has_mrn_or_ssn</t>
   </si>
   <si>
-    <t>properties.properties.properties.has_mrn_or_ssn</t>
+    <t>properties.has_mrn_or_ssn</t>
   </si>
   <si>
     <t>has_phone_number</t>
   </si>
   <si>
-    <t>properties.properties.properties.has_phone_number</t>
+    <t>properties.has_phone_number</t>
   </si>
   <si>
     <t>hcw</t>
   </si>
   <si>
-    <t>properties.properties.properties.hcw</t>
+    <t>properties.hcw</t>
   </si>
   <si>
     <t>hcw_facility</t>
   </si>
   <si>
-    <t>properties.properties.properties.hcw_facility</t>
+    <t>properties.hcw_facility</t>
   </si>
   <si>
     <t>hcw_facility_name_addr</t>
   </si>
   <si>
-    <t>properties.properties.properties.hcw_facility_name_addr</t>
+    <t>properties.hcw_facility_name_addr</t>
   </si>
   <si>
     <t>hcw_facility_reference</t>
   </si>
   <si>
-    <t>properties.properties.properties.hcw_facility_reference</t>
+    <t>properties.hcw_facility_reference</t>
   </si>
   <si>
     <t>hcw_type</t>
   </si>
   <si>
-    <t>properties.properties.properties.hcw_type</t>
+    <t>properties.hcw_type</t>
   </si>
   <si>
     <t>healthcare_job_setting</t>
   </si>
   <si>
-    <t>properties.properties.properties.healthcare_job_setting</t>
+    <t>properties.healthcare_job_setting</t>
   </si>
   <si>
     <t>hemodialysis</t>
   </si>
   <si>
-    <t>properties.properties.properties.hemodialysis</t>
+    <t>properties.hemodialysis</t>
   </si>
   <si>
     <t>highest_temp_degrees_f</t>
   </si>
   <si>
-    <t>properties.properties.properties.highest_temp_degrees_f</t>
+    <t>properties.highest_temp_degrees_f</t>
   </si>
   <si>
     <t>hospital_admission_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.hospital_admission_date</t>
+    <t>properties.hospital_admission_date</t>
   </si>
   <si>
     <t>hospital_discharge_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.hospital_discharge_date</t>
+    <t>properties.hospital_discharge_date</t>
   </si>
   <si>
     <t>hospital_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.hospital_name</t>
+    <t>properties.hospital_name</t>
   </si>
   <si>
     <t>hospitalized</t>
   </si>
   <si>
-    <t>properties.properties.properties.hospitalized</t>
+    <t>properties.hospitalized</t>
   </si>
   <si>
     <t>household_residents</t>
   </si>
   <si>
-    <t>properties.properties.properties.household_residents</t>
+    <t>properties.household_residents</t>
   </si>
   <si>
     <t>housing</t>
   </si>
   <si>
-    <t>properties.properties.properties.housing</t>
+    <t>properties.housing</t>
   </si>
   <si>
     <t>housing_factility_details</t>
   </si>
   <si>
-    <t>properties.properties.properties.housing_factility_details</t>
+    <t>properties.housing_factility_details</t>
   </si>
   <si>
     <t>housing_other</t>
   </si>
   <si>
-    <t>properties.properties.properties.housing_other</t>
+    <t>properties.housing_other</t>
   </si>
   <si>
     <t>icu</t>
   </si>
   <si>
-    <t>properties.properties.properties.icu</t>
+    <t>properties.icu</t>
   </si>
   <si>
     <t>icu_admission_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.icu_admission_date</t>
+    <t>properties.icu_admission_date</t>
   </si>
   <si>
     <t>icu_discharge_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.icu_discharge_date</t>
+    <t>properties.icu_discharge_date</t>
   </si>
   <si>
     <t>imaging_findings</t>
   </si>
   <si>
-    <t>properties.properties.properties.imaging_findings</t>
+    <t>properties.imaging_findings</t>
   </si>
   <si>
     <t>imaging_findings_details</t>
   </si>
   <si>
-    <t>properties.properties.properties.imaging_findings_details</t>
+    <t>properties.imaging_findings_details</t>
   </si>
   <si>
     <t>immune_suppression</t>
   </si>
   <si>
-    <t>properties.properties.properties.immune_suppression</t>
+    <t>properties.immune_suppression</t>
   </si>
   <si>
     <t>index_patient_case_id</t>
   </si>
   <si>
-    <t>properties.properties.properties.index_patient_case_id</t>
+    <t>properties.index_patient_case_id</t>
   </si>
   <si>
     <t>indext_patient_case_id</t>
   </si>
   <si>
-    <t>properties.properties.properties.indext_patient_case_id</t>
+    <t>properties.indext_patient_case_id</t>
   </si>
   <si>
     <t>intake_complete</t>
   </si>
   <si>
-    <t>properties.properties.properties.intake_complete</t>
+    <t>properties.intake_complete</t>
   </si>
   <si>
     <t>intake_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.intake_date</t>
+    <t>properties.intake_date</t>
   </si>
   <si>
     <t>interview_complete</t>
   </si>
   <si>
-    <t>properties.properties.properties.interview_complete</t>
+    <t>properties.interview_complete</t>
   </si>
   <si>
     <t>interview_complete_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.interview_complete_date</t>
+    <t>properties.interview_complete_date</t>
   </si>
   <si>
     <t>interview_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.interview_date</t>
+    <t>properties.interview_date</t>
   </si>
   <si>
     <t>interview_disposition</t>
   </si>
   <si>
-    <t>properties.properties.properties.interview_disposition</t>
+    <t>properties.interview_disposition</t>
   </si>
   <si>
     <t>interview_initiated</t>
   </si>
   <si>
-    <t>properties.properties.properties.interview_initiated</t>
+    <t>properties.interview_initiated</t>
   </si>
   <si>
     <t>interview_status</t>
   </si>
   <si>
-    <t>properties.properties.properties.interview_status</t>
+    <t>properties.interview_status</t>
   </si>
   <si>
     <t>interviewee</t>
   </si>
   <si>
-    <t>properties.properties.properties.interviewee</t>
+    <t>properties.interviewee</t>
   </si>
   <si>
     <t>interviewee_other</t>
   </si>
   <si>
-    <t>properties.properties.properties.interviewee_other</t>
+    <t>properties.interviewee_other</t>
   </si>
   <si>
     <t>interviewee_proxy</t>
   </si>
   <si>
-    <t>properties.properties.properties.interviewee_proxy</t>
+    <t>properties.interviewee_proxy</t>
   </si>
   <si>
     <t>interviewer_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.interviewer_name</t>
+    <t>properties.interviewer_name</t>
   </si>
   <si>
     <t>interviewer_username</t>
   </si>
   <si>
-    <t>properties.properties.properties.interviewer_username</t>
+    <t>properties.interviewer_username</t>
   </si>
   <si>
     <t>intubated</t>
   </si>
   <si>
-    <t>properties.properties.properties.intubated</t>
+    <t>properties.intubated</t>
   </si>
   <si>
     <t>investigation</t>
   </si>
   <si>
-    <t>properties.properties.properties.investigation</t>
+    <t>properties.investigation</t>
   </si>
   <si>
     <t>investigation_case_id</t>
   </si>
   <si>
-    <t>properties.properties.properties.investigation_case_id</t>
+    <t>properties.investigation_case_id</t>
   </si>
   <si>
     <t>investigation_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.investigation_name</t>
+    <t>properties.investigation_name</t>
   </si>
   <si>
     <t>is_assigned_primary</t>
   </si>
   <si>
-    <t>properties.properties.properties.is_assigned_primary</t>
+    <t>properties.is_assigned_primary</t>
   </si>
   <si>
     <t>is_assigned_temp</t>
   </si>
   <si>
-    <t>properties.properties.properties.is_assigned_temp</t>
+    <t>properties.is_assigned_temp</t>
   </si>
   <si>
     <t>is_the_workplace_essential</t>
   </si>
   <si>
-    <t>properties.properties.properties.is_the_workplace_essential</t>
+    <t>properties.is_the_workplace_essential</t>
   </si>
   <si>
     <t>isolation_end_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.isolation_end_date</t>
+    <t>properties.isolation_end_date</t>
   </si>
   <si>
     <t>isolation_notice_sent</t>
   </si>
   <si>
-    <t>properties.properties.properties.isolation_notice_sent</t>
+    <t>properties.isolation_notice_sent</t>
   </si>
   <si>
     <t>isolation_notice_sent_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.isolation_notice_sent_date</t>
+    <t>properties.isolation_notice_sent_date</t>
   </si>
   <si>
     <t>isolation_start_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.isolation_start_date</t>
+    <t>properties.isolation_start_date</t>
   </si>
   <si>
     <t>job_address_information</t>
   </si>
   <si>
-    <t>properties.properties.properties.job_address_information</t>
+    <t>properties.job_address_information</t>
   </si>
   <si>
     <t>job_description_occupation</t>
   </si>
   <si>
-    <t>properties.properties.properties.job_description_occupation</t>
+    <t>properties.job_description_occupation</t>
   </si>
   <si>
     <t>job_last_date_attended</t>
   </si>
   <si>
-    <t>properties.properties.properties.job_last_date_attended</t>
+    <t>properties.job_last_date_attended</t>
   </si>
   <si>
     <t>job_site_information</t>
   </si>
   <si>
-    <t>properties.properties.properties.job_site_information</t>
+    <t>properties.job_site_information</t>
   </si>
   <si>
     <t>lab_facility</t>
   </si>
   <si>
-    <t>properties.properties.properties.lab_facility</t>
+    <t>properties.lab_facility</t>
   </si>
   <si>
     <t>lab_result</t>
   </si>
   <si>
-    <t>properties.properties.properties.lab_result</t>
+    <t>properties.lab_result</t>
   </si>
   <si>
     <t>lang_code</t>
   </si>
   <si>
-    <t>properties.properties.properties.lang_code</t>
+    <t>properties.lang_code</t>
   </si>
   <si>
     <t>language_code</t>
   </si>
   <si>
-    <t>properties.properties.properties.language_code</t>
+    <t>properties.language_code</t>
   </si>
   <si>
     <t>last_date_at_workplace</t>
   </si>
   <si>
-    <t>properties.properties.properties.last_date_at_workplace</t>
+    <t>properties.last_date_at_workplace</t>
   </si>
   <si>
     <t>last_date_on_ship</t>
   </si>
   <si>
-    <t>properties.properties.properties.last_date_on_ship</t>
+    <t>properties.last_date_on_ship</t>
   </si>
   <si>
     <t>last_modified_by_user_username</t>
   </si>
   <si>
-    <t>properties.properties.properties.last_modified_by_user_username</t>
+    <t>properties.last_modified_by_user_username</t>
   </si>
   <si>
     <t>last_modified_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.last_modified_date</t>
+    <t>properties.last_modified_date</t>
   </si>
   <si>
     <t>last_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.last_name</t>
+    <t>properties.last_name</t>
   </si>
   <si>
     <t>learned_results_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.learned_results_date</t>
+    <t>properties.learned_results_date</t>
   </si>
   <si>
     <t>location_quarantine_isolation</t>
   </si>
   <si>
-    <t>properties.properties.properties.location_quarantine_isolation</t>
+    <t>properties.location_quarantine_isolation</t>
   </si>
   <si>
     <t>ltcf</t>
   </si>
   <si>
-    <t>properties.properties.properties.ltcf</t>
+    <t>properties.ltcf</t>
   </si>
   <si>
     <t>ltcf_facility_reference</t>
   </si>
   <si>
-    <t>properties.properties.properties.ltcf_facility_reference</t>
+    <t>properties.ltcf_facility_reference</t>
   </si>
   <si>
     <t>mechanical_ventilation</t>
   </si>
   <si>
-    <t>properties.properties.properties.mechanical_ventilation</t>
+    <t>properties.mechanical_ventilation</t>
   </si>
   <si>
     <t>most_recent_case_note</t>
   </si>
   <si>
-    <t>properties.properties.properties.most_recent_case_note</t>
+    <t>properties.most_recent_case_note</t>
   </si>
   <si>
     <t>mrn</t>
   </si>
   <si>
-    <t>properties.properties.properties.mrn</t>
+    <t>properties.mrn</t>
   </si>
   <si>
     <t>mrn_ssn</t>
   </si>
   <si>
-    <t>properties.properties.properties.mrn_ssn</t>
+    <t>properties.mrn_ssn</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>properties.properties.properties.name</t>
+    <t>properties.name</t>
   </si>
   <si>
     <t>name_and_covid_id</t>
   </si>
   <si>
-    <t>properties.properties.properties.name_and_covid_id</t>
+    <t>properties.name_and_covid_id</t>
   </si>
   <si>
     <t>name_and_id</t>
   </si>
   <si>
-    <t>properties.properties.properties.name_and_id</t>
+    <t>properties.name_and_id</t>
   </si>
   <si>
     <t>name_of_ship</t>
   </si>
   <si>
-    <t>properties.properties.properties.name_of_ship</t>
+    <t>properties.name_of_ship</t>
   </si>
   <si>
     <t>need_phn</t>
   </si>
   <si>
-    <t>properties.properties.properties.need_phn</t>
+    <t>properties.need_phn</t>
   </si>
   <si>
     <t>new_note_author</t>
   </si>
   <si>
-    <t>properties.properties.properties.new_note_author</t>
+    <t>properties.new_note_author</t>
   </si>
   <si>
     <t>new_note_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.new_note_date</t>
+    <t>properties.new_note_date</t>
   </si>
   <si>
     <t>next_form</t>
   </si>
   <si>
-    <t>properties.properties.properties.next_form</t>
+    <t>properties.next_form</t>
   </si>
   <si>
     <t>not_hcw_volunteered</t>
   </si>
   <si>
-    <t>properties.properties.properties.not_hcw_volunteered</t>
+    <t>properties.not_hcw_volunteered</t>
   </si>
   <si>
     <t>number</t>
   </si>
   <si>
-    <t>properties.properties.properties.number</t>
+    <t>properties.number</t>
   </si>
   <si>
     <t>occupation</t>
   </si>
   <si>
-    <t>properties.properties.properties.occupation</t>
+    <t>properties.occupation</t>
   </si>
   <si>
     <t>occupation_other</t>
   </si>
   <si>
-    <t>properties.properties.properties.occupation_other</t>
+    <t>properties.occupation_other</t>
   </si>
   <si>
     <t>occupation_primary</t>
   </si>
   <si>
-    <t>properties.properties.properties.occupation_primary</t>
+    <t>properties.occupation_primary</t>
   </si>
   <si>
     <t>occupation_primary_other</t>
   </si>
   <si>
-    <t>properties.properties.properties.occupation_primary_other</t>
+    <t>properties.occupation_primary_other</t>
   </si>
   <si>
     <t>occupation_primary_workplace</t>
   </si>
   <si>
-    <t>properties.properties.properties.occupation_primary_workplace</t>
+    <t>properties.occupation_primary_workplace</t>
   </si>
   <si>
     <t>occupation_secondary</t>
   </si>
   <si>
-    <t>properties.properties.properties.occupation_secondary</t>
+    <t>properties.occupation_secondary</t>
   </si>
   <si>
     <t>occupation_secondary_other</t>
   </si>
   <si>
-    <t>properties.properties.properties.occupation_secondary_other</t>
+    <t>properties.occupation_secondary_other</t>
   </si>
   <si>
     <t>occupation_secondary_workplace</t>
   </si>
   <si>
-    <t>properties.properties.properties.occupation_secondary_workplace</t>
+    <t>properties.occupation_secondary_workplace</t>
   </si>
   <si>
     <t>ooj</t>
   </si>
   <si>
-    <t>properties.properties.properties.ooj</t>
+    <t>properties.ooj</t>
   </si>
   <si>
     <t>opened_by_username</t>
   </si>
   <si>
-    <t>properties.properties.properties.opened_by_username</t>
+    <t>properties.opened_by_username</t>
   </si>
   <si>
     <t>opened_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.opened_date</t>
+    <t>properties.opened_date</t>
   </si>
   <si>
     <t>ordering_facility</t>
   </si>
   <si>
-    <t>properties.properties.properties.ordering_facility</t>
+    <t>properties.ordering_facility</t>
   </si>
   <si>
     <t>ordering_provider</t>
   </si>
   <si>
-    <t>properties.properties.properties.ordering_provider</t>
+    <t>properties.ordering_provider</t>
   </si>
   <si>
     <t>other_diagnosis</t>
   </si>
   <si>
-    <t>properties.properties.properties.other_diagnosis</t>
+    <t>properties.other_diagnosis</t>
   </si>
   <si>
     <t>other_exposure_specified</t>
   </si>
   <si>
-    <t>properties.properties.properties.other_exposure_specified</t>
+    <t>properties.other_exposure_specified</t>
   </si>
   <si>
     <t>other_exposures</t>
   </si>
   <si>
-    <t>properties.properties.properties.other_exposures</t>
+    <t>properties.other_exposures</t>
   </si>
   <si>
     <t>owner_id</t>
   </si>
   <si>
-    <t>properties.properties.properties.owner_id</t>
+    <t>properties.owner_id</t>
   </si>
   <si>
     <t>owner_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.owner_name</t>
+    <t>properties.owner_name</t>
   </si>
   <si>
     <t>patient_auto_close_analysis_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.patient_auto_close_analysis_date</t>
+    <t>properties.patient_auto_close_analysis_date</t>
   </si>
   <si>
     <t>patient_auto_close_specimen_collection_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.patient_auto_close_specimen_collection_date</t>
+    <t>properties.patient_auto_close_specimen_collection_date</t>
   </si>
   <si>
     <t>patient_type</t>
   </si>
   <si>
-    <t>properties.properties.properties.patient_type</t>
+    <t>properties.patient_type</t>
   </si>
   <si>
     <t>phone_home</t>
   </si>
   <si>
-    <t>properties.properties.properties.phone_home</t>
+    <t>properties.phone_home</t>
   </si>
   <si>
     <t>phone_home_can_receive_sms</t>
   </si>
   <si>
-    <t>properties.properties.properties.phone_home_can_receive_sms</t>
+    <t>properties.phone_home_can_receive_sms</t>
   </si>
   <si>
     <t>phone_home_display</t>
   </si>
   <si>
-    <t>properties.properties.properties.phone_home_display</t>
+    <t>properties.phone_home_display</t>
   </si>
   <si>
     <t>phone_work</t>
   </si>
   <si>
-    <t>properties.properties.properties.phone_work</t>
+    <t>properties.phone_work</t>
   </si>
   <si>
     <t>phone_work_display</t>
   </si>
   <si>
-    <t>properties.properties.properties.phone_work_display</t>
+    <t>properties.phone_work_display</t>
   </si>
   <si>
     <t>pregnant</t>
   </si>
   <si>
-    <t>properties.properties.properties.pregnant</t>
+    <t>properties.pregnant</t>
   </si>
   <si>
     <t>primary_language</t>
   </si>
   <si>
-    <t>properties.properties.properties.primary_language</t>
+    <t>properties.primary_language</t>
   </si>
   <si>
     <t>primary_language_other</t>
   </si>
   <si>
-    <t>properties.properties.properties.primary_language_other</t>
+    <t>properties.primary_language_other</t>
   </si>
   <si>
     <t>private_bathroom</t>
   </si>
   <si>
-    <t>properties.properties.properties.private_bathroom</t>
+    <t>properties.private_bathroom</t>
   </si>
   <si>
     <t>provider_affiliated_facility</t>
   </si>
   <si>
-    <t>properties.properties.properties.provider_affiliated_facility</t>
+    <t>properties.provider_affiliated_facility</t>
   </si>
   <si>
     <t>provider_email_address</t>
   </si>
   <si>
-    <t>properties.properties.properties.provider_email_address</t>
+    <t>properties.provider_email_address</t>
   </si>
   <si>
     <t>provider_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.provider_name</t>
+    <t>properties.provider_name</t>
   </si>
   <si>
     <t>provider_phone_number</t>
   </si>
   <si>
-    <t>properties.properties.properties.provider_phone_number</t>
+    <t>properties.provider_phone_number</t>
   </si>
   <si>
     <t>psychological_condition</t>
   </si>
   <si>
-    <t>properties.properties.properties.psychological_condition</t>
+    <t>properties.psychological_condition</t>
   </si>
   <si>
     <t>pui_caller_additional_phone</t>
   </si>
   <si>
-    <t>properties.properties.properties.pui_caller_additional_phone</t>
+    <t>properties.pui_caller_additional_phone</t>
   </si>
   <si>
     <t>pui_caller_address</t>
   </si>
   <si>
-    <t>properties.properties.properties.pui_caller_address</t>
+    <t>properties.pui_caller_address</t>
   </si>
   <si>
     <t>pui_caller_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.pui_caller_date</t>
+    <t>properties.pui_caller_date</t>
   </si>
   <si>
     <t>pui_caller_facility</t>
   </si>
   <si>
-    <t>properties.properties.properties.pui_caller_facility</t>
+    <t>properties.pui_caller_facility</t>
   </si>
   <si>
     <t>pui_caller_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.pui_caller_name</t>
+    <t>properties.pui_caller_name</t>
   </si>
   <si>
     <t>pui_caller_phone</t>
   </si>
   <si>
-    <t>properties.properties.properties.pui_caller_phone</t>
+    <t>properties.pui_caller_phone</t>
   </si>
   <si>
     <t>pui_caller_time</t>
   </si>
   <si>
-    <t>properties.properties.properties.pui_caller_time</t>
+    <t>properties.pui_caller_time</t>
   </si>
   <si>
     <t>pui_count</t>
   </si>
   <si>
-    <t>properties.properties.properties.pui_count</t>
+    <t>properties.pui_count</t>
   </si>
   <si>
     <t>pui_id</t>
   </si>
   <si>
-    <t>properties.properties.properties.pui_id</t>
+    <t>properties.pui_id</t>
   </si>
   <si>
     <t>pui_interviewer_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.pui_interviewer_name</t>
+    <t>properties.pui_interviewer_name</t>
   </si>
   <si>
     <t>pui_scenario_note</t>
   </si>
   <si>
-    <t>properties.properties.properties.pui_scenario_note</t>
+    <t>properties.pui_scenario_note</t>
   </si>
   <si>
     <t>pui_status</t>
   </si>
   <si>
-    <t>properties.properties.properties.pui_status</t>
+    <t>properties.pui_status</t>
   </si>
   <si>
     <t>race</t>
   </si>
   <si>
-    <t>properties.properties.properties.race</t>
+    <t>properties.race</t>
   </si>
   <si>
     <t>race_specify</t>
   </si>
   <si>
-    <t>properties.properties.properties.race_specify</t>
+    <t>properties.race_specify</t>
   </si>
   <si>
     <t>referral_ct</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_ct</t>
+    <t>properties.referral_ct</t>
   </si>
   <si>
     <t>referral_fb_cbo</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_fb_cbo</t>
+    <t>properties.referral_fb_cbo</t>
   </si>
   <si>
     <t>referral_fb_cbo_complete_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_fb_cbo_complete_date</t>
+    <t>properties.referral_fb_cbo_complete_date</t>
   </si>
   <si>
     <t>referral_fb_cbo_notes</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_fb_cbo_notes</t>
+    <t>properties.referral_fb_cbo_notes</t>
   </si>
   <si>
     <t>referral_fb_cbo_open_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_fb_cbo_open_date</t>
+    <t>properties.referral_fb_cbo_open_date</t>
   </si>
   <si>
     <t>referral_fb_cbo_status</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_fb_cbo_status</t>
+    <t>properties.referral_fb_cbo_status</t>
   </si>
   <si>
     <t>referral_hc</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_hc</t>
+    <t>properties.referral_hc</t>
   </si>
   <si>
     <t>referral_hc_complete_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_hc_complete_date</t>
+    <t>properties.referral_hc_complete_date</t>
   </si>
   <si>
     <t>referral_hc_notes</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_hc_notes</t>
+    <t>properties.referral_hc_notes</t>
   </si>
   <si>
     <t>referral_hc_open_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_hc_open_date</t>
+    <t>properties.referral_hc_open_date</t>
   </si>
   <si>
     <t>referral_hc_status</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_hc_status</t>
+    <t>properties.referral_hc_status</t>
   </si>
   <si>
     <t>referral_homeless</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_homeless</t>
+    <t>properties.referral_homeless</t>
   </si>
   <si>
     <t>referral_homeless_complete_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_homeless_complete_date</t>
+    <t>properties.referral_homeless_complete_date</t>
   </si>
   <si>
     <t>referral_homeless_notes</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_homeless_notes</t>
+    <t>properties.referral_homeless_notes</t>
   </si>
   <si>
     <t>referral_homeless_open_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_homeless_open_date</t>
+    <t>properties.referral_homeless_open_date</t>
   </si>
   <si>
     <t>referral_homeless_status</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_homeless_status</t>
+    <t>properties.referral_homeless_status</t>
   </si>
   <si>
     <t>referral_incarcerated</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_incarcerated</t>
+    <t>properties.referral_incarcerated</t>
   </si>
   <si>
     <t>referral_incarcerated_complete_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_incarcerated_complete_date</t>
+    <t>properties.referral_incarcerated_complete_date</t>
   </si>
   <si>
     <t>referral_incarcerated_complete_date_entered</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_incarcerated_complete_date_entered</t>
+    <t>properties.referral_incarcerated_complete_date_entered</t>
   </si>
   <si>
     <t>referral_incarcerated_entered</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_incarcerated_entered</t>
+    <t>properties.referral_incarcerated_entered</t>
   </si>
   <si>
     <t>referral_incarcerated_notes</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_incarcerated_notes</t>
+    <t>properties.referral_incarcerated_notes</t>
   </si>
   <si>
     <t>referral_incarcerated_notes_entered</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_incarcerated_notes_entered</t>
+    <t>properties.referral_incarcerated_notes_entered</t>
   </si>
   <si>
     <t>referral_incarcerated_open_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_incarcerated_open_date</t>
+    <t>properties.referral_incarcerated_open_date</t>
   </si>
   <si>
     <t>referral_incarcerated_status</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_incarcerated_status</t>
+    <t>properties.referral_incarcerated_status</t>
   </si>
   <si>
     <t>referral_iq</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_iq</t>
+    <t>properties.referral_iq</t>
   </si>
   <si>
     <t>referral_iq_complete_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_iq_complete_date</t>
+    <t>properties.referral_iq_complete_date</t>
   </si>
   <si>
     <t>referral_iq_notes</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_iq_notes</t>
+    <t>properties.referral_iq_notes</t>
   </si>
   <si>
     <t>referral_iq_open_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_iq_open_date</t>
+    <t>properties.referral_iq_open_date</t>
   </si>
   <si>
     <t>referral_iq_status</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_iq_status</t>
+    <t>properties.referral_iq_status</t>
   </si>
   <si>
     <t>referral_ltcf</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_ltcf</t>
+    <t>properties.referral_ltcf</t>
   </si>
   <si>
     <t>referral_ltcf_complete_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_ltcf_complete_date</t>
+    <t>properties.referral_ltcf_complete_date</t>
   </si>
   <si>
     <t>referral_ltcf_notes</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_ltcf_notes</t>
+    <t>properties.referral_ltcf_notes</t>
   </si>
   <si>
     <t>referral_ltcf_open_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_ltcf_open_date</t>
+    <t>properties.referral_ltcf_open_date</t>
   </si>
   <si>
     <t>referral_ltcf_status</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_ltcf_status</t>
+    <t>properties.referral_ltcf_status</t>
   </si>
   <si>
     <t>referral_residential</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_residential</t>
+    <t>properties.referral_residential</t>
   </si>
   <si>
     <t>referral_residential_complete_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_residential_complete_date</t>
+    <t>properties.referral_residential_complete_date</t>
   </si>
   <si>
     <t>referral_residential_notes</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_residential_notes</t>
+    <t>properties.referral_residential_notes</t>
   </si>
   <si>
     <t>referral_residential_open_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_residential_open_date</t>
+    <t>properties.referral_residential_open_date</t>
   </si>
   <si>
     <t>referral_residential_status</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_residential_status</t>
+    <t>properties.referral_residential_status</t>
   </si>
   <si>
     <t>referral_school</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_school</t>
+    <t>properties.referral_school</t>
   </si>
   <si>
     <t>referral_school_complete_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_school_complete_date</t>
+    <t>properties.referral_school_complete_date</t>
   </si>
   <si>
     <t>referral_school_notes</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_school_notes</t>
+    <t>properties.referral_school_notes</t>
   </si>
   <si>
     <t>referral_school_open_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_school_open_date</t>
+    <t>properties.referral_school_open_date</t>
   </si>
   <si>
     <t>referral_school_status</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_school_status</t>
+    <t>properties.referral_school_status</t>
   </si>
   <si>
     <t>referral_senior</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_senior</t>
+    <t>properties.referral_senior</t>
   </si>
   <si>
     <t>referral_senior_complete_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_senior_complete_date</t>
+    <t>properties.referral_senior_complete_date</t>
   </si>
   <si>
     <t>referral_senior_notes</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_senior_notes</t>
+    <t>properties.referral_senior_notes</t>
   </si>
   <si>
     <t>referral_senior_open_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_senior_open_date</t>
+    <t>properties.referral_senior_open_date</t>
   </si>
   <si>
     <t>referral_senior_status</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_senior_status</t>
+    <t>properties.referral_senior_status</t>
   </si>
   <si>
     <t>referral_sro</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_sro</t>
+    <t>properties.referral_sro</t>
   </si>
   <si>
     <t>referral_sro_complete_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_sro_complete_date</t>
+    <t>properties.referral_sro_complete_date</t>
   </si>
   <si>
     <t>referral_sro_notes</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_sro_notes</t>
+    <t>properties.referral_sro_notes</t>
   </si>
   <si>
     <t>referral_sro_open_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_sro_open_date</t>
+    <t>properties.referral_sro_open_date</t>
   </si>
   <si>
     <t>referral_sro_status</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_sro_status</t>
+    <t>properties.referral_sro_status</t>
   </si>
   <si>
     <t>referral_workplace</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_workplace</t>
+    <t>properties.referral_workplace</t>
   </si>
   <si>
     <t>referral_workplace_complete_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_workplace_complete_date</t>
+    <t>properties.referral_workplace_complete_date</t>
   </si>
   <si>
     <t>referral_workplace_notes</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_workplace_notes</t>
+    <t>properties.referral_workplace_notes</t>
   </si>
   <si>
     <t>referral_workplace_open_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_workplace_open_date</t>
+    <t>properties.referral_workplace_open_date</t>
   </si>
   <si>
     <t>referral_workplace_status</t>
   </si>
   <si>
-    <t>properties.properties.properties.referral_workplace_status</t>
+    <t>properties.referral_workplace_status</t>
   </si>
   <si>
     <t>registration_user</t>
   </si>
   <si>
-    <t>properties.properties.properties.registration_user</t>
+    <t>properties.registration_user</t>
   </si>
   <si>
     <t>registration_username</t>
   </si>
   <si>
-    <t>properties.properties.properties.registration_username</t>
+    <t>properties.registration_username</t>
   </si>
   <si>
     <t>reopen_after_auto_close</t>
   </si>
   <si>
-    <t>properties.properties.properties.reopen_after_auto_close</t>
+    <t>properties.reopen_after_auto_close</t>
   </si>
   <si>
     <t>school_university_childcare_center</t>
   </si>
   <si>
-    <t>properties.properties.properties.school_university_childcare_center</t>
+    <t>properties.school_university_childcare_center</t>
   </si>
   <si>
     <t>school_university_childcare_center_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.school_university_childcare_center_date</t>
+    <t>properties.school_university_childcare_center_date</t>
   </si>
   <si>
     <t>school_university_childcare_center_location</t>
   </si>
   <si>
-    <t>properties.properties.properties.school_university_childcare_center_location</t>
+    <t>properties.school_university_childcare_center_location</t>
   </si>
   <si>
     <t>school_university_childcare_center_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.school_university_childcare_center_name</t>
+    <t>properties.school_university_childcare_center_name</t>
   </si>
   <si>
     <t>school_university_childcare_center_reference</t>
   </si>
   <si>
-    <t>properties.properties.properties.school_university_childcare_center_reference</t>
+    <t>properties.school_university_childcare_center_reference</t>
   </si>
   <si>
     <t>seat_number</t>
   </si>
   <si>
-    <t>properties.properties.properties.seat_number</t>
+    <t>properties.seat_number</t>
   </si>
   <si>
     <t>self_isolate_have_food</t>
   </si>
   <si>
-    <t>properties.properties.properties.self_isolate_have_food</t>
+    <t>properties.self_isolate_have_food</t>
   </si>
   <si>
     <t>self_isolate_have_food_help</t>
   </si>
   <si>
-    <t>properties.properties.properties.self_isolate_have_food_help</t>
+    <t>properties.self_isolate_have_food_help</t>
   </si>
   <si>
     <t>self_isolate_need_help</t>
   </si>
   <si>
-    <t>properties.properties.properties.self_isolate_need_help</t>
+    <t>properties.self_isolate_need_help</t>
   </si>
   <si>
     <t>self_isolate_need_help_details</t>
   </si>
   <si>
-    <t>properties.properties.properties.self_isolate_need_help_details</t>
+    <t>properties.self_isolate_need_help_details</t>
   </si>
   <si>
     <t>self_isolate_possible</t>
   </si>
   <si>
-    <t>properties.properties.properties.self_isolate_possible</t>
+    <t>properties.self_isolate_possible</t>
   </si>
   <si>
     <t>self_isolate_possible_why_not</t>
   </si>
   <si>
-    <t>properties.properties.properties.self_isolate_possible_why_not</t>
+    <t>properties.self_isolate_possible_why_not</t>
   </si>
   <si>
     <t>source_contact_case_id</t>
   </si>
   <si>
-    <t>properties.properties.properties.source_contact_case_id</t>
+    <t>properties.source_contact_case_id</t>
   </si>
   <si>
     <t>source_contact_id</t>
   </si>
   <si>
-    <t>properties.properties.properties.source_contact_id</t>
+    <t>properties.source_contact_id</t>
   </si>
   <si>
     <t>source_county_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.source_county_name</t>
+    <t>properties.source_county_name</t>
   </si>
   <si>
     <t>source_patient_case_id</t>
   </si>
   <si>
-    <t>properties.properties.properties.source_patient_case_id</t>
+    <t>properties.source_patient_case_id</t>
   </si>
   <si>
     <t>specify_correctional_facility_name_and_address</t>
   </si>
   <si>
-    <t>properties.properties.properties.specify_correctional_facility_name_and_address</t>
+    <t>properties.specify_correctional_facility_name_and_address</t>
   </si>
   <si>
     <t>specify_counties</t>
   </si>
   <si>
-    <t>properties.properties.properties.specify_counties</t>
+    <t>properties.specify_counties</t>
   </si>
   <si>
     <t>specify_countries</t>
   </si>
   <si>
-    <t>properties.properties.properties.specify_countries</t>
+    <t>properties.specify_countries</t>
   </si>
   <si>
     <t>specify_facility_name_and_address</t>
   </si>
   <si>
-    <t>properties.properties.properties.specify_facility_name_and_address</t>
+    <t>properties.specify_facility_name_and_address</t>
   </si>
   <si>
     <t>specify_ltcf_name_and_address</t>
   </si>
   <si>
-    <t>properties.properties.properties.specify_ltcf_name_and_address</t>
+    <t>properties.specify_ltcf_name_and_address</t>
   </si>
   <si>
     <t>specify_school_university_childcare_center_name_and_address</t>
   </si>
   <si>
-    <t>properties.properties.properties.specify_school_university_childcare_center_name_and_address</t>
+    <t>properties.specify_school_university_childcare_center_name_and_address</t>
   </si>
   <si>
     <t>specify_states</t>
   </si>
   <si>
-    <t>properties.properties.properties.specify_states</t>
+    <t>properties.specify_states</t>
   </si>
   <si>
     <t>specify_workplace_setting</t>
   </si>
   <si>
-    <t>properties.properties.properties.specify_workplace_setting</t>
+    <t>properties.specify_workplace_setting</t>
   </si>
   <si>
     <t>specimen_collection_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.specimen_collection_date</t>
+    <t>properties.specimen_collection_date</t>
   </si>
   <si>
     <t>specimen_collection_facility_type</t>
   </si>
   <si>
-    <t>properties.properties.properties.specimen_collection_facility_type</t>
+    <t>properties.specimen_collection_facility_type</t>
   </si>
   <si>
     <t>specimen_collection_notes</t>
   </si>
   <si>
-    <t>properties.properties.properties.specimen_collection_notes</t>
+    <t>properties.specimen_collection_notes</t>
   </si>
   <si>
     <t>specimen_collection_status</t>
   </si>
   <si>
-    <t>properties.properties.properties.specimen_collection_status</t>
+    <t>properties.specimen_collection_status</t>
   </si>
   <si>
     <t>ssn</t>
   </si>
   <si>
-    <t>properties.properties.properties.ssn</t>
+    <t>properties.ssn</t>
   </si>
   <si>
     <t>stub</t>
   </si>
   <si>
-    <t>properties.properties.properties.stub</t>
+    <t>properties.stub</t>
   </si>
   <si>
     <t>stub_type</t>
   </si>
   <si>
-    <t>properties.properties.properties.stub_type</t>
+    <t>properties.stub_type</t>
   </si>
   <si>
     <t>subway_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.subway_date</t>
+    <t>properties.subway_date</t>
   </si>
   <si>
     <t>subway_information</t>
   </si>
   <si>
-    <t>properties.properties.properties.subway_information</t>
+    <t>properties.subway_information</t>
   </si>
   <si>
     <t>symptom_count</t>
   </si>
   <si>
-    <t>properties.properties.properties.symptom_count</t>
+    <t>properties.symptom_count</t>
   </si>
   <si>
     <t>symptom_onset_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.symptom_onset_date</t>
+    <t>properties.symptom_onset_date</t>
   </si>
   <si>
     <t>symptom_resolution_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.symptom_resolution_date</t>
+    <t>properties.symptom_resolution_date</t>
   </si>
   <si>
     <t>symptom_resolution_status</t>
   </si>
   <si>
-    <t>properties.properties.properties.symptom_resolution_status</t>
+    <t>properties.symptom_resolution_status</t>
   </si>
   <si>
     <t>symptomatic</t>
   </si>
   <si>
-    <t>properties.properties.properties.symptomatic</t>
+    <t>properties.symptomatic</t>
   </si>
   <si>
     <t>symptoms_other</t>
   </si>
   <si>
-    <t>properties.properties.properties.symptoms_other</t>
+    <t>properties.symptoms_other</t>
   </si>
   <si>
     <t>symptoms_selected</t>
   </si>
   <si>
-    <t>properties.properties.properties.symptoms_selected</t>
+    <t>properties.symptoms_selected</t>
   </si>
   <si>
     <t>test_property</t>
   </si>
   <si>
-    <t>properties.properties.properties.test_property</t>
+    <t>properties.test_property</t>
   </si>
   <si>
     <t>testing_method</t>
   </si>
   <si>
-    <t>properties.properties.properties.testing_method</t>
+    <t>properties.testing_method</t>
   </si>
   <si>
     <t>train_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.train_date</t>
+    <t>properties.train_date</t>
   </si>
   <si>
     <t>train_information</t>
   </si>
   <si>
-    <t>properties.properties.properties.train_information</t>
+    <t>properties.train_information</t>
   </si>
   <si>
     <t>transfer_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.transfer_date</t>
+    <t>properties.transfer_date</t>
   </si>
   <si>
     <t>transfer_destination_county_domain</t>
   </si>
   <si>
-    <t>properties.properties.properties.transfer_destination_county_domain</t>
+    <t>properties.transfer_destination_county_domain</t>
   </si>
   <si>
     <t>transfer_destination_county_id</t>
   </si>
   <si>
-    <t>properties.properties.properties.transfer_destination_county_id</t>
+    <t>properties.transfer_destination_county_id</t>
   </si>
   <si>
     <t>transfer_destination_county_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.transfer_destination_county_name</t>
+    <t>properties.transfer_destination_county_name</t>
   </si>
   <si>
     <t>transfer_note</t>
   </si>
   <si>
-    <t>properties.properties.properties.transfer_note</t>
+    <t>properties.transfer_note</t>
   </si>
   <si>
     <t>transfer_status</t>
   </si>
   <si>
-    <t>properties.properties.properties.transfer_status</t>
+    <t>properties.transfer_status</t>
   </si>
   <si>
     <t>transmission_category</t>
   </si>
   <si>
-    <t>properties.properties.properties.transmission_category</t>
+    <t>properties.transmission_category</t>
   </si>
   <si>
     <t>travel_on_plane_visit_airport</t>
   </si>
   <si>
-    <t>properties.properties.properties.travel_on_plane_visit_airport</t>
+    <t>properties.travel_on_plane_visit_airport</t>
   </si>
   <si>
     <t>travel_on_ship</t>
   </si>
   <si>
-    <t>properties.properties.properties.travel_on_ship</t>
+    <t>properties.travel_on_ship</t>
   </si>
   <si>
     <t>travel_outside_country</t>
   </si>
   <si>
-    <t>properties.properties.properties.travel_outside_country</t>
+    <t>properties.travel_outside_country</t>
   </si>
   <si>
     <t>travel_outside_country_purpose</t>
   </si>
   <si>
-    <t>properties.properties.properties.travel_outside_country_purpose</t>
+    <t>properties.travel_outside_country_purpose</t>
   </si>
   <si>
     <t>travel_outside_county</t>
   </si>
   <si>
-    <t>properties.properties.properties.travel_outside_county</t>
+    <t>properties.travel_outside_county</t>
   </si>
   <si>
     <t>travel_outside_county_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.travel_outside_county_name</t>
+    <t>properties.travel_outside_county_name</t>
   </si>
   <si>
     <t>travel_outside_county_purpose</t>
   </si>
   <si>
-    <t>properties.properties.properties.travel_outside_county_purpose</t>
+    <t>properties.travel_outside_county_purpose</t>
   </si>
   <si>
     <t>travel_outside_state</t>
   </si>
   <si>
-    <t>properties.properties.properties.travel_outside_state</t>
+    <t>properties.travel_outside_state</t>
   </si>
   <si>
     <t>travel_outside_state_county_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.travel_outside_state_county_name</t>
+    <t>properties.travel_outside_state_county_name</t>
   </si>
   <si>
     <t>travel_outside_state_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.travel_outside_state_name</t>
+    <t>properties.travel_outside_state_name</t>
   </si>
   <si>
     <t>travel_outside_state_purpose</t>
   </si>
   <si>
-    <t>properties.properties.properties.travel_outside_state_purpose</t>
+    <t>properties.travel_outside_state_purpose</t>
   </si>
   <si>
     <t>travel_outside_state_specify_county_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.travel_outside_state_specify_county_name</t>
+    <t>properties.travel_outside_state_specify_county_name</t>
   </si>
   <si>
     <t>travel_transportation</t>
   </si>
   <si>
-    <t>properties.properties.properties.travel_transportation</t>
+    <t>properties.travel_transportation</t>
   </si>
   <si>
     <t>type_of_animal</t>
   </si>
   <si>
-    <t>properties.properties.properties.type_of_animal</t>
+    <t>properties.type_of_animal</t>
   </si>
   <si>
     <t>underlying_conditions</t>
   </si>
   <si>
-    <t>properties.properties.properties.underlying_conditions</t>
+    <t>properties.underlying_conditions</t>
   </si>
   <si>
     <t>underlying_conditions_other</t>
   </si>
   <si>
-    <t>properties.properties.properties.underlying_conditions_other</t>
+    <t>properties.underlying_conditions_other</t>
   </si>
   <si>
     <t>underlying_conditions_selected</t>
   </si>
   <si>
-    <t>properties.properties.properties.underlying_conditions_selected</t>
+    <t>properties.underlying_conditions_selected</t>
   </si>
   <si>
     <t>work_address</t>
   </si>
   <si>
-    <t>properties.properties.properties.work_address</t>
+    <t>properties.work_address</t>
   </si>
   <si>
     <t>work_last_date</t>
   </si>
   <si>
-    <t>properties.properties.properties.work_last_date</t>
+    <t>properties.work_last_date</t>
   </si>
   <si>
     <t>work_last_date_daycare_school</t>
   </si>
   <si>
-    <t>properties.properties.properties.work_last_date_daycare_school</t>
+    <t>properties.work_last_date_daycare_school</t>
   </si>
   <si>
     <t>work_last_date_dorm</t>
   </si>
   <si>
-    <t>properties.properties.properties.work_last_date_dorm</t>
+    <t>properties.work_last_date_dorm</t>
   </si>
   <si>
     <t>work_last_date_health_care</t>
   </si>
   <si>
-    <t>properties.properties.properties.work_last_date_health_care</t>
+    <t>properties.work_last_date_health_care</t>
   </si>
   <si>
     <t>work_last_date_high_risk_setting</t>
   </si>
   <si>
-    <t>properties.properties.properties.work_last_date_high_risk_setting</t>
+    <t>properties.work_last_date_high_risk_setting</t>
   </si>
   <si>
     <t>work_last_date_ltc</t>
   </si>
   <si>
-    <t>properties.properties.properties.work_last_date_ltc</t>
+    <t>properties.work_last_date_ltc</t>
   </si>
   <si>
     <t>work_last_date_other_care_provider</t>
   </si>
   <si>
-    <t>properties.properties.properties.work_last_date_other_care_provider</t>
+    <t>properties.work_last_date_other_care_provider</t>
   </si>
   <si>
     <t>work_manager</t>
   </si>
   <si>
-    <t>properties.properties.properties.work_manager</t>
+    <t>properties.work_manager</t>
   </si>
   <si>
     <t>work_manager_email</t>
   </si>
   <si>
-    <t>properties.properties.properties.work_manager_email</t>
+    <t>properties.work_manager_email</t>
   </si>
   <si>
     <t>work_manager_phone_cell</t>
   </si>
   <si>
-    <t>properties.properties.properties.work_manager_phone_cell</t>
+    <t>properties.work_manager_phone_cell</t>
   </si>
   <si>
     <t>work_manager_phone_work</t>
   </si>
   <si>
-    <t>properties.properties.properties.work_manager_phone_work</t>
+    <t>properties.work_manager_phone_work</t>
   </si>
   <si>
     <t>work_name</t>
   </si>
   <si>
-    <t>properties.properties.properties.work_name</t>
+    <t>properties.work_name</t>
   </si>
   <si>
     <t>work_setting</t>
   </si>
   <si>
-    <t>properties.properties.properties.work_setting</t>
+    <t>properties.work_setting</t>
   </si>
   <si>
     <t>workplace</t>
   </si>
   <si>
-    <t>properties.properties.properties.workplace</t>
+    <t>properties.workplace</t>
   </si>
   <si>
     <t>workplace_is_critical</t>
   </si>
   <si>
-    <t>properties.properties.properties.workplace_is_critical</t>
+    <t>properties.workplace_is_critical</t>
   </si>
 </sst>
 </file>
@@ -2794,15 +2794,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -3149,900 +3149,900 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="E9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="E10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="E12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="E13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="E15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="E16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="E17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="E18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="E20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="E21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="E22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="E23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="E24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="E25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="E26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="E27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="E28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="E29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="E30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="E31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="E32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="E33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="E34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="E35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="E36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="E37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="E38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="E39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="E40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="E41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="E42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="E43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="E44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="E45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="E46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="E47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="E48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="E49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="E50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="E51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="E52" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="E53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="E54" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="E55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="E56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="E57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F57" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="E58" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="E59" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="E60" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F60" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="E61" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F61" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="E62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="E63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="E64" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="E65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="E66" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F66" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="E67" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="E68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F68" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="E69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F69" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="E70" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F70" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="E71" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="E72" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F72" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="E73" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F73" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="E74" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F74" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="E75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="E76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="E77" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F77" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="E78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F78" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="E79" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F79" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="E80" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F80" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="E81" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F81" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="E82" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F82" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="E83" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F83" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="E84" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F84" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="E85" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F85" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="E86" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F86" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="E87" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F87" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="E88" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F88" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="E89" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F89" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="E90" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F90" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="E91" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F91" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="E92" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F92" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="E93" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F93" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="E94" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F94" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="E95" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F95" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="E96" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F96" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="E97" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F97" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="E98" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F98" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="E99" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F99" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="E100" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F100" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="E101" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F101" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="E102" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F102" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="E103" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F103" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="E104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F104" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="E105" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F105" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="E106" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F106" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="E107" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F107" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="E108" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F108" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="E109" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F109" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="E110" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F110" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="E111" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F111" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="E112" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F112" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="E113" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F113" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="E114" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F114" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="E115" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F115" t="s">
         <v>236</v>
@@ -6761,6 +6761,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>